--- a/SchedulingData/dynamic15/pso/scheduling1_6.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling1_6.xlsx
@@ -462,154 +462,154 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>38.2</v>
+        <v>37.1</v>
       </c>
       <c r="E2" t="n">
-        <v>26.88</v>
+        <v>27.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38.2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>81.90000000000001</v>
+        <v>56.2</v>
       </c>
       <c r="E3" t="n">
-        <v>23.64</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>37.1</v>
       </c>
       <c r="D4" t="n">
-        <v>77.09999999999999</v>
+        <v>101.88</v>
       </c>
       <c r="E4" t="n">
-        <v>26.92</v>
+        <v>24.092</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>77.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>156.5</v>
+        <v>53.2</v>
       </c>
       <c r="E5" t="n">
-        <v>22.12</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>156.5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>207.84</v>
+        <v>66.22</v>
       </c>
       <c r="E6" t="n">
-        <v>18.116</v>
+        <v>26.048</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>64.52</v>
+        <v>60.8</v>
       </c>
       <c r="E7" t="n">
-        <v>26.208</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>207.84</v>
+        <v>101.88</v>
       </c>
       <c r="D8" t="n">
-        <v>273.46</v>
+        <v>173.96</v>
       </c>
       <c r="E8" t="n">
-        <v>14.164</v>
+        <v>19.984</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>81.90000000000001</v>
+        <v>173.96</v>
       </c>
       <c r="D9" t="n">
-        <v>118.5</v>
+        <v>237.52</v>
       </c>
       <c r="E9" t="n">
-        <v>21.12</v>
+        <v>16.728</v>
       </c>
     </row>
     <row r="10">
@@ -618,36 +618,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>60.8</v>
       </c>
       <c r="D10" t="n">
-        <v>53.64</v>
+        <v>124.72</v>
       </c>
       <c r="E10" t="n">
-        <v>27.296</v>
+        <v>22.828</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>124.72</v>
       </c>
       <c r="D11" t="n">
-        <v>44.16</v>
+        <v>181.96</v>
       </c>
       <c r="E11" t="n">
-        <v>27.264</v>
+        <v>19.704</v>
       </c>
     </row>
     <row r="12">
@@ -656,74 +656,74 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>44.16</v>
+        <v>237.52</v>
       </c>
       <c r="D12" t="n">
-        <v>91.59999999999999</v>
+        <v>308.78</v>
       </c>
       <c r="E12" t="n">
-        <v>24.14</v>
+        <v>13.712</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>56.2</v>
       </c>
       <c r="D13" t="n">
-        <v>95.7</v>
+        <v>122.3</v>
       </c>
       <c r="E13" t="n">
-        <v>25.08</v>
+        <v>21.56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>91.59999999999999</v>
+        <v>122.3</v>
       </c>
       <c r="D14" t="n">
-        <v>168.9</v>
+        <v>172.98</v>
       </c>
       <c r="E14" t="n">
-        <v>21.02</v>
+        <v>18.612</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>168.9</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>222.1</v>
+        <v>81.44</v>
       </c>
       <c r="E15" t="n">
-        <v>16.34</v>
+        <v>25.996</v>
       </c>
     </row>
     <row r="16">
@@ -732,150 +732,150 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>118.5</v>
+        <v>66.22</v>
       </c>
       <c r="D16" t="n">
-        <v>176.08</v>
+        <v>136.7</v>
       </c>
       <c r="E16" t="n">
-        <v>17.472</v>
+        <v>22.64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>53.64</v>
+        <v>53.2</v>
       </c>
       <c r="D17" t="n">
-        <v>115.06</v>
+        <v>121.1</v>
       </c>
       <c r="E17" t="n">
-        <v>23.264</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>115.06</v>
+        <v>81.44</v>
       </c>
       <c r="D18" t="n">
-        <v>173.8</v>
+        <v>147.76</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>21.964</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>273.46</v>
+        <v>181.96</v>
       </c>
       <c r="D19" t="n">
-        <v>327.64</v>
+        <v>225.52</v>
       </c>
       <c r="E19" t="n">
-        <v>11.356</v>
+        <v>16.968</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>173.8</v>
+        <v>308.78</v>
       </c>
       <c r="D20" t="n">
-        <v>223.6</v>
+        <v>364.84</v>
       </c>
       <c r="E20" t="n">
-        <v>16.64</v>
+        <v>9.736000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>176.08</v>
+        <v>121.1</v>
       </c>
       <c r="D21" t="n">
-        <v>229.34</v>
+        <v>158.9</v>
       </c>
       <c r="E21" t="n">
-        <v>13.776</v>
+        <v>20.04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>223.6</v>
+        <v>147.76</v>
       </c>
       <c r="D22" t="n">
-        <v>267.26</v>
+        <v>192.56</v>
       </c>
       <c r="E22" t="n">
-        <v>13.904</v>
+        <v>19.104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>95.7</v>
+        <v>136.7</v>
       </c>
       <c r="D23" t="n">
-        <v>154.56</v>
+        <v>205.88</v>
       </c>
       <c r="E23" t="n">
-        <v>21.824</v>
+        <v>19.832</v>
       </c>
     </row>
     <row r="24">
@@ -884,74 +884,74 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>154.56</v>
+        <v>192.56</v>
       </c>
       <c r="D24" t="n">
-        <v>209.16</v>
+        <v>238.08</v>
       </c>
       <c r="E24" t="n">
-        <v>18.964</v>
+        <v>16.192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>327.64</v>
+        <v>205.88</v>
       </c>
       <c r="D25" t="n">
-        <v>402.32</v>
+        <v>252.94</v>
       </c>
       <c r="E25" t="n">
-        <v>7.968</v>
+        <v>17.236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>222.1</v>
+        <v>158.9</v>
       </c>
       <c r="D26" t="n">
-        <v>273.12</v>
+        <v>228.1</v>
       </c>
       <c r="E26" t="n">
-        <v>13.348</v>
+        <v>15.24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>402.32</v>
+        <v>228.1</v>
       </c>
       <c r="D27" t="n">
-        <v>443.1</v>
+        <v>301.3</v>
       </c>
       <c r="E27" t="n">
-        <v>5.02</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -960,188 +960,188 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>443.1</v>
+        <v>172.98</v>
       </c>
       <c r="D28" t="n">
-        <v>512.92</v>
+        <v>244.66</v>
       </c>
       <c r="E28" t="n">
-        <v>2.108</v>
+        <v>15.024</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>273.12</v>
+        <v>301.3</v>
       </c>
       <c r="D29" t="n">
-        <v>336.14</v>
+        <v>382.9</v>
       </c>
       <c r="E29" t="n">
-        <v>10.156</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>267.26</v>
+        <v>252.94</v>
       </c>
       <c r="D30" t="n">
-        <v>302.78</v>
+        <v>329.74</v>
       </c>
       <c r="E30" t="n">
-        <v>10.992</v>
+        <v>12.676</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>302.78</v>
+        <v>244.66</v>
       </c>
       <c r="D31" t="n">
-        <v>364.38</v>
+        <v>276.86</v>
       </c>
       <c r="E31" t="n">
-        <v>7.472</v>
+        <v>12.944</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>364.38</v>
+        <v>276.86</v>
       </c>
       <c r="D32" t="n">
-        <v>411.18</v>
+        <v>341.36</v>
       </c>
       <c r="E32" t="n">
-        <v>5.392</v>
+        <v>9.584</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>512.92</v>
+        <v>382.9</v>
       </c>
       <c r="D33" t="n">
-        <v>575.7</v>
+        <v>436.06</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>5.224</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>575.7</v>
+        <v>238.08</v>
       </c>
       <c r="D34" t="n">
-        <v>626.16</v>
+        <v>312.58</v>
       </c>
       <c r="E34" t="n">
-        <v>27.144</v>
+        <v>12.812</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>336.14</v>
+        <v>225.52</v>
       </c>
       <c r="D35" t="n">
-        <v>404.8</v>
+        <v>273.32</v>
       </c>
       <c r="E35" t="n">
-        <v>6.9</v>
+        <v>13.328</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>404.8</v>
+        <v>273.32</v>
       </c>
       <c r="D36" t="n">
-        <v>461.86</v>
+        <v>326.56</v>
       </c>
       <c r="E36" t="n">
-        <v>4.304</v>
+        <v>10.624</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>411.18</v>
+        <v>329.74</v>
       </c>
       <c r="D37" t="n">
-        <v>458.46</v>
+        <v>364.7</v>
       </c>
       <c r="E37" t="n">
-        <v>1.804</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="38">
@@ -1150,166 +1150,166 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>458.46</v>
+        <v>326.56</v>
       </c>
       <c r="D38" t="n">
-        <v>526.75</v>
+        <v>384.44</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>6.976</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>229.34</v>
+        <v>364.84</v>
       </c>
       <c r="D39" t="n">
-        <v>279.62</v>
+        <v>431.46</v>
       </c>
       <c r="E39" t="n">
-        <v>10.368</v>
+        <v>6.184</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>209.16</v>
+        <v>364.7</v>
       </c>
       <c r="D40" t="n">
-        <v>298.66</v>
+        <v>412.6</v>
       </c>
       <c r="E40" t="n">
-        <v>15.584</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>64.52</v>
+        <v>384.44</v>
       </c>
       <c r="D41" t="n">
-        <v>126.7</v>
+        <v>465.86</v>
       </c>
       <c r="E41" t="n">
-        <v>22.62</v>
+        <v>2.944</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>461.86</v>
+        <v>436.06</v>
       </c>
       <c r="D42" t="n">
-        <v>518.48</v>
+        <v>508.46</v>
       </c>
       <c r="E42" t="n">
-        <v>0.272</v>
+        <v>2.104</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>518.48</v>
+        <v>341.36</v>
       </c>
       <c r="D43" t="n">
-        <v>599.74</v>
+        <v>400.12</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>6.328</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>279.62</v>
+        <v>400.12</v>
       </c>
       <c r="D44" t="n">
-        <v>341.14</v>
+        <v>449.08</v>
       </c>
       <c r="E44" t="n">
-        <v>6.816</v>
+        <v>3.052</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>341.14</v>
+        <v>312.58</v>
       </c>
       <c r="D45" t="n">
-        <v>397.3</v>
+        <v>356.92</v>
       </c>
       <c r="E45" t="n">
-        <v>3.8</v>
+        <v>9.507999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>397.3</v>
+        <v>465.86</v>
       </c>
       <c r="D46" t="n">
-        <v>471.4</v>
+        <v>541.87</v>
       </c>
       <c r="E46" t="n">
         <v>30</v>
@@ -1317,230 +1317,230 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>471.4</v>
+        <v>541.87</v>
       </c>
       <c r="D47" t="n">
-        <v>547.8</v>
+        <v>601.11</v>
       </c>
       <c r="E47" t="n">
-        <v>25.02</v>
+        <v>26.736</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>126.7</v>
+        <v>356.92</v>
       </c>
       <c r="D48" t="n">
-        <v>181.04</v>
+        <v>410.58</v>
       </c>
       <c r="E48" t="n">
-        <v>19.316</v>
+        <v>6.772</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>181.04</v>
+        <v>431.46</v>
       </c>
       <c r="D49" t="n">
-        <v>218.94</v>
+        <v>501.86</v>
       </c>
       <c r="E49" t="n">
-        <v>17.156</v>
+        <v>1.264</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>547.8</v>
+        <v>501.86</v>
       </c>
       <c r="D50" t="n">
-        <v>613.2</v>
+        <v>590.83</v>
       </c>
       <c r="E50" t="n">
-        <v>21.1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>218.94</v>
+        <v>412.6</v>
       </c>
       <c r="D51" t="n">
-        <v>304.04</v>
+        <v>482.82</v>
       </c>
       <c r="E51" t="n">
-        <v>12.236</v>
+        <v>3.248</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>298.66</v>
+        <v>449.08</v>
       </c>
       <c r="D52" t="n">
-        <v>385.06</v>
+        <v>529.78</v>
       </c>
       <c r="E52" t="n">
-        <v>11.024</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>304.04</v>
+        <v>529.78</v>
       </c>
       <c r="D53" t="n">
-        <v>374.8</v>
+        <v>620.38</v>
       </c>
       <c r="E53" t="n">
-        <v>8.26</v>
+        <v>26.08</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>385.06</v>
+        <v>601.11</v>
       </c>
       <c r="D54" t="n">
-        <v>428.84</v>
+        <v>648.29</v>
       </c>
       <c r="E54" t="n">
-        <v>7.776</v>
+        <v>23.148</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>613.2</v>
+        <v>590.83</v>
       </c>
       <c r="D55" t="n">
-        <v>680.8</v>
+        <v>662.15</v>
       </c>
       <c r="E55" t="n">
-        <v>17.44</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>374.8</v>
+        <v>410.58</v>
       </c>
       <c r="D56" t="n">
-        <v>434.18</v>
+        <v>481.68</v>
       </c>
       <c r="E56" t="n">
-        <v>4.452</v>
+        <v>1.792</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>526.75</v>
+        <v>481.68</v>
       </c>
       <c r="D57" t="n">
-        <v>584.63</v>
+        <v>564.7</v>
       </c>
       <c r="E57" t="n">
-        <v>25.892</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>428.84</v>
+        <v>620.38</v>
       </c>
       <c r="D58" t="n">
-        <v>498</v>
+        <v>678.86</v>
       </c>
       <c r="E58" t="n">
-        <v>4.5</v>
+        <v>22.832</v>
       </c>
     </row>
     <row r="59">
@@ -1549,55 +1549,55 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>498</v>
+        <v>564.7</v>
       </c>
       <c r="D59" t="n">
-        <v>555.8</v>
+        <v>639.28</v>
       </c>
       <c r="E59" t="n">
-        <v>0.86</v>
+        <v>26.192</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>555.8</v>
+        <v>482.82</v>
       </c>
       <c r="D60" t="n">
-        <v>630.88</v>
+        <v>545.9400000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>30</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>630.88</v>
+        <v>545.9400000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>681.6799999999999</v>
+        <v>627.53</v>
       </c>
       <c r="E61" t="n">
-        <v>26.62</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
